--- a/Testbed/Inputs/Dataset.xlsx
+++ b/Testbed/Inputs/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willoughbywinograd/Library/CloudStorage/GoogleDrive-willoughby@winograd.org/My Drive/Employment/Current/The Deliberative Democracy Lab/Projects/DeliberativePolling/Test Data/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willoughbywinograd/Library/CloudStorage/GoogleDrive-willoughby@winograd.org/My Drive/Employment/Current/The Deliberative Democracy Lab/Projects/DeliberativePolling/Testbed/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A08F8B-BCE5-FC44-BEF6-DD1FFB6F1521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C9DE3-62C2-094A-A37B-9870FF870162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19740" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>Prefer not to state</t>
   </si>
   <si>
-    <t>Independent (no party affiliation)</t>
-  </si>
-  <si>
     <t>Lean Republican</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Independent</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,130 +862,130 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="AF2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="AG2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AH2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="AI2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AJ2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AK2" t="s">
         <v>119</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AL2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AM2" t="s">
         <v>119</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AN2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AO2" t="s">
         <v>119</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AP2" t="s">
         <v>119</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AQ2" t="s">
         <v>119</v>
-      </c>
-      <c r="O2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" t="s">
-        <v>119</v>
-      </c>
-      <c r="U2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V2" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -1214,28 +1214,28 @@
         <v>87</v>
       </c>
       <c r="AH4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI4" t="s">
         <v>88</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>89</v>
       </c>
       <c r="AJ4" t="s">
         <v>87</v>
       </c>
       <c r="AK4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL4" t="s">
         <v>90</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>91</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>92</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>93</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>94</v>
       </c>
       <c r="AP4" t="s">
         <v>87</v>
@@ -1246,109 +1246,109 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>96</v>
       </c>
-      <c r="H5" t="s">
+      <c r="N5" t="s">
         <v>96</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" t="s">
+      <c r="AC5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AD5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>98</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>98</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>99</v>
       </c>
       <c r="AH5" t="s">
         <v>87</v>
       </c>
       <c r="AI5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>100</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>101</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>102</v>
       </c>
       <c r="AM5" t="s">
         <v>87</v>
@@ -1357,93 +1357,93 @@
         <v>87</v>
       </c>
       <c r="AO5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP5" t="s">
         <v>103</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH6" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" t="s">
-        <v>105</v>
-      </c>
-      <c r="W6" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>106</v>
       </c>
       <c r="AI6" t="s">
         <v>87</v>
@@ -1452,102 +1452,102 @@
         <v>87</v>
       </c>
       <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP6" t="s">
         <v>107</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>110</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>110</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>110</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>110</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="s">
         <v>111</v>
       </c>
-      <c r="J7" t="s">
+      <c r="AC7" t="s">
         <v>111</v>
       </c>
-      <c r="K7" t="s">
+      <c r="AD7" t="s">
         <v>111</v>
       </c>
-      <c r="L7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" t="s">
-        <v>111</v>
-      </c>
-      <c r="S7" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" t="s">
-        <v>111</v>
-      </c>
-      <c r="U7" t="s">
-        <v>111</v>
-      </c>
-      <c r="V7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" t="s">
-        <v>111</v>
-      </c>
-      <c r="X7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AL7" t="s">
         <v>112</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>113</v>
       </c>
       <c r="AO7" t="s">
         <v>87</v>
@@ -1555,102 +1555,102 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" t="s">
+        <v>113</v>
+      </c>
+      <c r="U8" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
+      <c r="AC8" t="s">
         <v>114</v>
       </c>
-      <c r="D8" t="s">
+      <c r="AD8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" t="s">
-        <v>114</v>
-      </c>
-      <c r="T8" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" t="s">
-        <v>114</v>
-      </c>
-      <c r="W8" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AL8" t="s">
         <v>115</v>
       </c>
-      <c r="AC8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AO8" t="s">
         <v>116</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
